--- a/Data/Commercial Property.xlsx
+++ b/Data/Commercial Property.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
